--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" state="visible" r:id="rId3"/>
@@ -36,253 +36,253 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
-    <t xml:space="preserve">Akage Kaku</t>
+    <t xml:space="preserve">Akage</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Anisa Mahardika</t>
+    <t xml:space="preserve">Anisa</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Anqi Bian</t>
+    <t xml:space="preserve">Anqi</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Aurelia Ng</t>
+    <t xml:space="preserve">Aurelia</t>
   </si>
   <si>
     <t xml:space="preserve">Visionary 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Chien Hui Lee</t>
+    <t xml:space="preserve">Chien</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Chinny Zheng</t>
+    <t xml:space="preserve">Chinny</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Cole Ma</t>
+    <t xml:space="preserve">Cole</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel Li</t>
+    <t xml:space="preserve">Daniel</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Dyana Hananingtyas</t>
+    <t xml:space="preserve">Dyana</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Gita Gracia Merimta</t>
+    <t xml:space="preserve">Gita</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Hayoung Park</t>
+    <t xml:space="preserve">Hayoung</t>
   </si>
   <si>
     <t xml:space="preserve">Visionary 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Huiya Li</t>
+    <t xml:space="preserve">Huiya</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Icy Zou</t>
+    <t xml:space="preserve">Icy</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 8</t>
   </si>
   <si>
-    <t xml:space="preserve">Iris Luo</t>
+    <t xml:space="preserve">Iris</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Jingyi Xiang</t>
+    <t xml:space="preserve">Jingyi</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Jingyuan Zhu</t>
+    <t xml:space="preserve">Jingyuan</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Karin Song</t>
+    <t xml:space="preserve">Karin</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 12</t>
   </si>
   <si>
-    <t xml:space="preserve">Leyi Shi</t>
+    <t xml:space="preserve">Leyi</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 13</t>
   </si>
   <si>
-    <t xml:space="preserve">Lu Li</t>
+    <t xml:space="preserve">Lu</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 14</t>
   </si>
   <si>
-    <t xml:space="preserve">Lujie Bao</t>
+    <t xml:space="preserve">Lujie</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 15</t>
   </si>
   <si>
-    <t xml:space="preserve">Meganne McCartney</t>
+    <t xml:space="preserve">Meganne</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 16</t>
   </si>
   <si>
-    <t xml:space="preserve">Minnie Jin</t>
+    <t xml:space="preserve">Minnie</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 17</t>
   </si>
   <si>
-    <t xml:space="preserve">Naia Ammane</t>
+    <t xml:space="preserve">Naia</t>
   </si>
   <si>
     <t xml:space="preserve">Visionary 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Pei Liu</t>
+    <t xml:space="preserve">Pei</t>
   </si>
   <si>
     <t xml:space="preserve">Visionary 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Pheona Chen</t>
+    <t xml:space="preserve">Pheona</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Qinyu Liu</t>
+    <t xml:space="preserve">Qinyu</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 18</t>
   </si>
   <si>
-    <t xml:space="preserve">Sakurako Watanabe</t>
+    <t xml:space="preserve">Sakurako</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 19</t>
   </si>
   <si>
-    <t xml:space="preserve">Shengyao Lai</t>
+    <t xml:space="preserve">Shengyao</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 31</t>
   </si>
   <si>
-    <t xml:space="preserve">Sunee Valentine James</t>
+    <t xml:space="preserve">Sunee</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 20</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomoaki Saito</t>
+    <t xml:space="preserve">Tomoaki</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 21</t>
   </si>
   <si>
-    <t xml:space="preserve">Tzu-Fan Yuan</t>
+    <t xml:space="preserve">Tzu-Fan</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Xiaomeng Wan</t>
+    <t xml:space="preserve">Xiaomeng</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Xinyi Ding</t>
+    <t xml:space="preserve">Xinyi</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 22</t>
   </si>
   <si>
-    <t xml:space="preserve">Xuefei Bai</t>
+    <t xml:space="preserve">Xuefei</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 23</t>
   </si>
   <si>
-    <t xml:space="preserve">Xueyi Zeng</t>
+    <t xml:space="preserve">Xueyi</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 24</t>
   </si>
   <si>
-    <t xml:space="preserve">Yiwei Zhang</t>
+    <t xml:space="preserve">Yiwei</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 25</t>
   </si>
   <si>
-    <t xml:space="preserve">Yizhu Zhao</t>
+    <t xml:space="preserve">Yizhu</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 26</t>
   </si>
   <si>
-    <t xml:space="preserve">Yuanjie Wang</t>
+    <t xml:space="preserve">Yuanjie</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 27</t>
   </si>
   <si>
-    <t xml:space="preserve">Yueni Ren</t>
+    <t xml:space="preserve">Yueni</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 28</t>
   </si>
   <si>
-    <t xml:space="preserve">Yuxin Huang</t>
+    <t xml:space="preserve">Yuxin</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Zhanhuan Wu</t>
+    <t xml:space="preserve">Zhanhuan</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 29</t>
   </si>
   <si>
-    <t xml:space="preserve">Zixuan You</t>
+    <t xml:space="preserve">Zixuan</t>
   </si>
   <si>
     <t xml:space="preserve">Employee 30</t>
@@ -663,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A2,roles!B:B,0),1)</f>
-        <v>Anisa Mahardika</v>
+        <v>Anisa</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>89</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A3,roles!B:B,0),1)</f>
-        <v>Chien Hui Lee</v>
+        <v>Chien</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>92</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A4,roles!B:B,0),1)</f>
-        <v>Chinny Zheng</v>
+        <v>Chinny</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>94</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A5,roles!B:B,0),1)</f>
-        <v>Cole Ma</v>
+        <v>Cole</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>94</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A6,roles!B:B,0),1)</f>
-        <v>Daniel Li</v>
+        <v>Daniel</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>93</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A7,roles!B:B,0),1)</f>
-        <v>Gita Gracia Merimta</v>
+        <v>Gita</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>93</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A8,roles!B:B,0),1)</f>
-        <v>Huiya Li</v>
+        <v>Huiya</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>93</v>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A9,roles!B:B,0),1)</f>
-        <v>Icy Zou</v>
+        <v>Icy</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>93</v>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A10,roles!B:B,0),1)</f>
-        <v>Iris Luo</v>
+        <v>Iris</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>90</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A11,roles!B:B,0),1)</f>
-        <v>Jingyi Xiang</v>
+        <v>Jingyi</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>96</v>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A12,roles!B:B,0),1)</f>
-        <v>Jingyuan Zhu</v>
+        <v>Jingyuan</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>96</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A13,roles!B:B,0),1)</f>
-        <v>Karin Song</v>
+        <v>Karin</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>90</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A14,roles!B:B,0),1)</f>
-        <v>Leyi Shi</v>
+        <v>Leyi</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>93</v>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B15" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A15,roles!B:B,0),1)</f>
-        <v>Lu Li</v>
+        <v>Lu</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>93</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B16" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A16,roles!B:B,0),1)</f>
-        <v>Lujie Bao</v>
+        <v>Lujie</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>93</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B17" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A17,roles!B:B,0),1)</f>
-        <v>Meganne McCartney</v>
+        <v>Meganne</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>96</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B18" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A18,roles!B:B,0),1)</f>
-        <v>Minnie Jin</v>
+        <v>Minnie</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>96</v>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B19" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A19,roles!B:B,0),1)</f>
-        <v>Qinyu Liu</v>
+        <v>Qinyu</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>96</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B20" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A20,roles!B:B,0),1)</f>
-        <v>Sakurako Watanabe</v>
+        <v>Sakurako</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>93</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A21,roles!B:B,0),1)</f>
-        <v>Sunee Valentine James</v>
+        <v>Sunee</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>93</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B22" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A22,roles!B:B,0),1)</f>
-        <v>Tomoaki Saito</v>
+        <v>Tomoaki</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>90</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B23" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A23,roles!B:B,0),1)</f>
-        <v>Xinyi Ding</v>
+        <v>Xinyi</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>89</v>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B24" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A24,roles!B:B,0),1)</f>
-        <v>Xuefei Bai</v>
+        <v>Xuefei</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>96</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B25" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A25,roles!B:B,0),1)</f>
-        <v>Xueyi Zeng</v>
+        <v>Xueyi</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>90</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B26" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A26,roles!B:B,0),1)</f>
-        <v>Yiwei Zhang</v>
+        <v>Yiwei</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>90</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B27" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A27,roles!B:B,0),1)</f>
-        <v>Yizhu Zhao</v>
+        <v>Yizhu</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B28" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A28,roles!B:B,0),1)</f>
-        <v>Yuanjie Wang</v>
+        <v>Yuanjie</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>96</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B29" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A29,roles!B:B,0),1)</f>
-        <v>Yueni Ren</v>
+        <v>Yueni</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>90</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B30" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A30,roles!B:B,0),1)</f>
-        <v>Zhanhuan Wu</v>
+        <v>Zhanhuan</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>94</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B31" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A31,roles!B:B,0),1)</f>
-        <v>Zixuan You</v>
+        <v>Zixuan</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>90</v>
@@ -1625,8 +1625,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A2,roles!B:B,0),1)</f>
-        <v>Aurelia Ng</v>
+        <v>Aurelia</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>100</v>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A3,roles!B:B,0),1)</f>
-        <v>Naia Ammane</v>
+        <v>Naia</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>101</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A4,roles!B:B,0),1)</f>
-        <v>Pei Liu</v>
+        <v>Pei</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>102</v>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A5,roles!B:B,0),1)</f>
-        <v>Hayoung Park</v>
+        <v>Hayoung</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>103</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A6,roles!B:B,0),1)</f>
-        <v>Akage Kaku</v>
+        <v>Akage</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>103</v>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A7,roles!B:B,0),1)</f>
-        <v>Dyana Hananingtyas</v>
+        <v>Dyana</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>100</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A8,roles!B:B,0),1)</f>
-        <v>Pheona Chen</v>
+        <v>Pheona</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>101</v>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A9,roles!B:B,0),1)</f>
-        <v>Yuxin Huang</v>
+        <v>Yuxin</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>103</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A10,roles!B:B,0),1)</f>
-        <v>Xiaomeng Wan</v>
+        <v>Xiaomeng</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>100</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A11,roles!B:B,0),1)</f>
-        <v>Anqi Bian</v>
+        <v>Anqi</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>102</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A12,roles!B:B,0),1)</f>
-        <v>Tzu-Fan Yuan</v>
+        <v>Tzu-Fan</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>103</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A14,roles!B:B,0),1)</f>
-        <v>Anisa Mahardika</v>
+        <v>Anisa</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>100</v>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B15" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A15,roles!B:B,0),1)</f>
-        <v>Chien Hui Lee</v>
+        <v>Chien</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>101</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B16" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A16,roles!B:B,0),1)</f>
-        <v>Chinny Zheng</v>
+        <v>Chinny</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>101</v>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B17" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A17,roles!B:B,0),1)</f>
-        <v>Cole Ma</v>
+        <v>Cole</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B18" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A18,roles!B:B,0),1)</f>
-        <v>Daniel Li</v>
+        <v>Daniel</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>101</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B19" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A19,roles!B:B,0),1)</f>
-        <v>Gita Gracia Merimta</v>
+        <v>Gita</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>100</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B20" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A20,roles!B:B,0),1)</f>
-        <v>Huiya Li</v>
+        <v>Huiya</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>102</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A21,roles!B:B,0),1)</f>
-        <v>Icy Zou</v>
+        <v>Icy</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>102</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B22" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A22,roles!B:B,0),1)</f>
-        <v>Iris Luo</v>
+        <v>Iris</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B23" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A23,roles!B:B,0),1)</f>
-        <v>Jingyi Xiang</v>
+        <v>Jingyi</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B24" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A24,roles!B:B,0),1)</f>
-        <v>Jingyuan Zhu</v>
+        <v>Jingyuan</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B25" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A25,roles!B:B,0),1)</f>
-        <v>Karin Song</v>
+        <v>Karin</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>102</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B26" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A26,roles!B:B,0),1)</f>
-        <v>Leyi Shi</v>
+        <v>Leyi</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>102</v>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B27" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A27,roles!B:B,0),1)</f>
-        <v>Lu Li</v>
+        <v>Lu</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>100</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B28" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A28,roles!B:B,0),1)</f>
-        <v>Lujie Bao</v>
+        <v>Lujie</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B29" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A29,roles!B:B,0),1)</f>
-        <v>Meganne McCartney</v>
+        <v>Meganne</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B30" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A30,roles!B:B,0),1)</f>
-        <v>Minnie Jin</v>
+        <v>Minnie</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B31" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A31,roles!B:B,0),1)</f>
-        <v>Qinyu Liu</v>
+        <v>Qinyu</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B32" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A32,roles!B:B,0),1)</f>
-        <v>Sakurako Watanabe</v>
+        <v>Sakurako</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>103</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B33" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A33,roles!B:B,0),1)</f>
-        <v>Sunee Valentine James</v>
+        <v>Sunee</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A34,roles!B:B,0),1)</f>
-        <v>Tomoaki Saito</v>
+        <v>Tomoaki</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A35,roles!B:B,0),1)</f>
-        <v>Xinyi Ding</v>
+        <v>Xinyi</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>100</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A36,roles!B:B,0),1)</f>
-        <v>Xuefei Bai</v>
+        <v>Xuefei</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A37,roles!B:B,0),1)</f>
-        <v>Xueyi Zeng</v>
+        <v>Xueyi</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>103</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A38,roles!B:B,0),1)</f>
-        <v>Yiwei Zhang</v>
+        <v>Yiwei</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>102</v>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A39,roles!B:B,0),1)</f>
-        <v>Yizhu Zhao</v>
+        <v>Yizhu</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>102</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A40,roles!B:B,0),1)</f>
-        <v>Yuanjie Wang</v>
+        <v>Yuanjie</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A41,roles!B:B,0),1)</f>
-        <v>Yueni Ren</v>
+        <v>Yueni</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A42,roles!B:B,0),1)</f>
-        <v>Zhanhuan Wu</v>
+        <v>Zhanhuan</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B43" s="1" t="str">
         <f aca="false">INDEX(roles!A:B,MATCH(A43,roles!B:B,0),1)</f>
-        <v>Zixuan You</v>
+        <v>Zixuan</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>101</v>
